--- a/NKE.xlsx
+++ b/NKE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A54B678-7A6A-4BF6-8AD5-C1AD13D3F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4628214E-3895-4F88-9A55-628078AD98F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B022B215-4C4C-4E36-8893-AFDEA07171F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Financials" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Ratios" sheetId="3" r:id="rId3"/>
     <sheet name="DCF" sheetId="5" r:id="rId4"/>
     <sheet name="CoC" sheetId="6" r:id="rId5"/>
@@ -895,9 +895,6 @@
     <t>NKE EQ</t>
   </si>
   <si>
-    <t>FQ126</t>
-  </si>
-  <si>
     <t>Q126</t>
   </si>
   <si>
@@ -911,6 +908,9 @@
   </si>
   <si>
     <t>Adidas, New Balance, Puma, Lulu Lemon, UA</t>
+  </si>
+  <si>
+    <t>FQ226</t>
   </si>
 </sst>
 </file>
@@ -930,13 +930,19 @@
     <numFmt numFmtId="173" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="174" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1255,135 +1261,138 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1457,16 +1466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1481,7 +1490,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10353675" y="1190625"/>
+          <a:off x="10977562" y="1171575"/>
           <a:ext cx="14288" cy="3833813"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1882,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3615D63-442C-4F04-AE1E-B00C49530224}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1919,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="3">
-        <v>71.94</v>
+        <v>58.85</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1936,10 +1945,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="5">
-        <v>1476.6</v>
-      </c>
-      <c r="J4" s="83" t="s">
-        <v>277</v>
+        <v>1479.5</v>
+      </c>
+      <c r="J4" s="85" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1957,7 +1966,7 @@
       </c>
       <c r="I5" s="14">
         <f>I3*I4</f>
-        <v>106226.60399999999</v>
+        <v>87068.574999999997</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -1969,11 +1978,11 @@
         <v>5</v>
       </c>
       <c r="I6" s="14">
-        <f>7024+1551</f>
-        <v>8575</v>
-      </c>
-      <c r="J6" s="83" t="s">
-        <v>277</v>
+        <f>6974+1371</f>
+        <v>8345</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1981,11 +1990,11 @@
         <v>6</v>
       </c>
       <c r="I7" s="14">
-        <f>0+7996</f>
-        <v>7996</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>277</v>
+        <f>7016+999</f>
+        <v>8015</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2000,7 +2009,7 @@
       </c>
       <c r="I8" s="14">
         <f>I5+I7-I6</f>
-        <v>105647.60399999999</v>
+        <v>86738.574999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2051,8 +2060,8 @@
       <c r="E11" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="84" t="s">
-        <v>282</v>
+      <c r="F11" s="79" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2068,8 +2077,8 @@
       <c r="E12" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="84" t="s">
-        <v>282</v>
+      <c r="F12" s="79" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2127,10 +2136,10 @@
   <dimension ref="A1:AI134"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2210,17 +2219,17 @@
       <c r="N2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="P2" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="P2" s="83" t="s">
+      <c r="Q2" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="R2" s="78" t="s">
         <v>280</v>
-      </c>
-      <c r="R2" s="83" t="s">
-        <v>281</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4" t="s">
@@ -2618,7 +2627,9 @@
       <c r="O9" s="5">
         <v>7410</v>
       </c>
-      <c r="P9" s="5"/>
+      <c r="P9" s="5">
+        <v>7659</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -2700,7 +2711,9 @@
       <c r="O10" s="5">
         <v>3313</v>
       </c>
-      <c r="P10" s="5"/>
+      <c r="P10" s="5">
+        <v>3906</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -2782,7 +2795,9 @@
       <c r="O11" s="5">
         <v>630</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="P11" s="5">
+        <v>550</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -2864,7 +2879,9 @@
       <c r="O12" s="5">
         <v>9</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="5">
+        <v>9</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -2957,7 +2974,10 @@
         <f>+SUM(O9:O12)</f>
         <v>11362</v>
       </c>
-      <c r="P13" s="5"/>
+      <c r="P13" s="5">
+        <f>+SUM(P9:P12)</f>
+        <v>12124</v>
+      </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -3045,7 +3065,9 @@
       <c r="O14" s="5">
         <v>366</v>
       </c>
-      <c r="P14" s="5"/>
+      <c r="P14" s="5">
+        <v>300</v>
+      </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -3127,7 +3149,9 @@
       <c r="O15" s="5">
         <v>-8</v>
       </c>
-      <c r="P15" s="5"/>
+      <c r="P15" s="5">
+        <v>3</v>
+      </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -3208,7 +3232,9 @@
       <c r="O16" s="8">
         <v>11720</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="P16" s="8">
+        <v>12427</v>
+      </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -3295,7 +3321,9 @@
       <c r="O17" s="5">
         <v>6777</v>
       </c>
-      <c r="P17" s="5"/>
+      <c r="P17" s="5">
+        <v>7382</v>
+      </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -3357,7 +3385,7 @@
         <v>5720</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" ref="H18:O18" si="11">H16-H17</f>
+        <f t="shared" ref="H18:P18" si="11">H16-H17</f>
         <v>5971</v>
       </c>
       <c r="I18" s="5">
@@ -3388,7 +3416,10 @@
         <f t="shared" si="11"/>
         <v>4943</v>
       </c>
-      <c r="P18" s="5"/>
+      <c r="P18" s="5">
+        <f t="shared" si="11"/>
+        <v>5045</v>
+      </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -3475,7 +3506,9 @@
       <c r="O19" s="5">
         <v>1188</v>
       </c>
-      <c r="P19" s="5"/>
+      <c r="P19" s="5">
+        <v>1273</v>
+      </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -3556,7 +3589,9 @@
       <c r="O20" s="5">
         <v>2828</v>
       </c>
-      <c r="P20" s="5"/>
+      <c r="P20" s="5">
+        <v>2766</v>
+      </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -3626,7 +3661,7 @@
         <v>4226</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" ref="J21:O21" si="14">J19+J20</f>
+        <f t="shared" ref="J21:P21" si="14">J19+J20</f>
         <v>4088</v>
       </c>
       <c r="K21" s="5">
@@ -3649,7 +3684,10 @@
         <f t="shared" si="14"/>
         <v>4016</v>
       </c>
-      <c r="P21" s="5"/>
+      <c r="P21" s="5">
+        <f t="shared" si="14"/>
+        <v>4039</v>
+      </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -3717,7 +3755,7 @@
         <v>1604</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" ref="H22:O22" si="21">H18-H21</f>
+        <f t="shared" ref="H22:P22" si="21">H18-H21</f>
         <v>1825</v>
       </c>
       <c r="I22" s="5">
@@ -3748,7 +3786,10 @@
         <f t="shared" si="21"/>
         <v>927</v>
       </c>
-      <c r="P22" s="5"/>
+      <c r="P22" s="5">
+        <f t="shared" si="21"/>
+        <v>1006</v>
+      </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -3835,7 +3876,9 @@
       <c r="O23" s="5">
         <v>-18</v>
       </c>
-      <c r="P23" s="5"/>
+      <c r="P23" s="5">
+        <v>-9</v>
+      </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -3916,7 +3959,9 @@
       <c r="O24" s="5">
         <v>23</v>
       </c>
-      <c r="P24" s="5"/>
+      <c r="P24" s="5">
+        <v>16</v>
+      </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -3978,7 +4023,7 @@
         <v>1648</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ref="H25:O25" si="24">H22-H23-H24</f>
+        <f t="shared" ref="H25:P25" si="24">H22-H23-H24</f>
         <v>1922</v>
       </c>
       <c r="I25" s="5">
@@ -4009,7 +4054,10 @@
         <f t="shared" si="24"/>
         <v>922</v>
       </c>
-      <c r="P25" s="5"/>
+      <c r="P25" s="5">
+        <f t="shared" si="24"/>
+        <v>999</v>
+      </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -4096,7 +4144,9 @@
       <c r="O26" s="5">
         <v>195</v>
       </c>
-      <c r="P26" s="5"/>
+      <c r="P26" s="5">
+        <v>207</v>
+      </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -4174,7 +4224,7 @@
         <v>1051</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" ref="L27:O27" si="27">L25-L26</f>
+        <f t="shared" ref="L27:P27" si="27">L25-L26</f>
         <v>1163</v>
       </c>
       <c r="M27" s="5">
@@ -4189,7 +4239,10 @@
         <f t="shared" si="27"/>
         <v>727</v>
       </c>
-      <c r="P27" s="5"/>
+      <c r="P27" s="5">
+        <f t="shared" si="27"/>
+        <v>792</v>
+      </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -4270,7 +4323,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" ref="C29:O29" si="29">C27/C30</f>
+        <f t="shared" ref="C29:P29" si="29">C27/C30</f>
         <v>0.92994376447237848</v>
       </c>
       <c r="D29" s="9">
@@ -4321,7 +4374,10 @@
         <f t="shared" si="29"/>
         <v>0.49234728430177438</v>
       </c>
-      <c r="P29" s="9"/>
+      <c r="P29" s="9">
+        <f t="shared" si="29"/>
+        <v>0.53531598513011147</v>
+      </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="5"/>
@@ -4405,7 +4461,9 @@
       <c r="O30" s="5">
         <v>1476.6</v>
       </c>
-      <c r="P30" s="5"/>
+      <c r="P30" s="5">
+        <v>1479.5</v>
+      </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -4514,7 +4572,7 @@
         <v>-0.11060764494016495</v>
       </c>
       <c r="M32" s="10">
-        <f t="shared" ref="M32:O37" si="37">M9/I9-1</f>
+        <f t="shared" ref="M32:P37" si="37">M9/I9-1</f>
         <v>-0.11688311688311692</v>
       </c>
       <c r="N32" s="10">
@@ -4525,7 +4583,10 @@
         <f t="shared" si="37"/>
         <v>-6.9686411149826322E-3</v>
       </c>
-      <c r="P32" s="10"/>
+      <c r="P32" s="10">
+        <f t="shared" si="37"/>
+        <v>5.2253429131288165E-4</v>
+      </c>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
@@ -4600,7 +4661,10 @@
         <f t="shared" si="37"/>
         <v>9.2678100263852148E-2</v>
       </c>
-      <c r="P33" s="10"/>
+      <c r="P33" s="10">
+        <f t="shared" si="37"/>
+        <v>4.4943820224719211E-2</v>
+      </c>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -4674,7 +4738,10 @@
         <f t="shared" si="37"/>
         <v>4.4776119402984982E-2</v>
       </c>
-      <c r="P34" s="10"/>
+      <c r="P34" s="10">
+        <f t="shared" si="37"/>
+        <v>1.1029411764705843E-2</v>
+      </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="T34" s="10">
@@ -4754,7 +4821,10 @@
         <f t="shared" si="37"/>
         <v>-0.3571428571428571</v>
       </c>
-      <c r="P35" s="10"/>
+      <c r="P35" s="10">
+        <f t="shared" si="37"/>
+        <v>-0.30769230769230771</v>
+      </c>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="T35" s="10">
@@ -4834,7 +4904,10 @@
         <f t="shared" si="37"/>
         <v>2.2590225902259009E-2</v>
       </c>
-      <c r="P36" s="10"/>
+      <c r="P36" s="10">
+        <f t="shared" si="37"/>
+        <v>1.4560669456066933E-2</v>
+      </c>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="T36" s="10">
@@ -4914,7 +4987,10 @@
         <f t="shared" si="37"/>
         <v>-0.26946107784431139</v>
       </c>
-      <c r="P37" s="10"/>
+      <c r="P37" s="10">
+        <f t="shared" si="37"/>
+        <v>-0.30069930069930073</v>
+      </c>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="T37" s="10">
@@ -4971,7 +5047,7 @@
         <v>-2.8238828389034909E-2</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" ref="H38:O38" si="46">H16/D16-1</f>
+        <f t="shared" ref="H38:P38" si="46">H16/D16-1</f>
         <v>5.482538490424238E-3</v>
       </c>
       <c r="I38" s="13">
@@ -5002,7 +5078,10 @@
         <f t="shared" si="46"/>
         <v>1.1303822590387425E-2</v>
       </c>
-      <c r="P38" s="13"/>
+      <c r="P38" s="13">
+        <f t="shared" si="46"/>
+        <v>5.9090173223248499E-3</v>
+      </c>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
@@ -5092,10 +5171,13 @@
         <v>0.40272145624943678</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" ref="O39" si="49">O18/O16</f>
+        <f t="shared" ref="O39:P39" si="49">O18/O16</f>
         <v>0.42175767918088736</v>
       </c>
-      <c r="P39" s="10"/>
+      <c r="P39" s="10">
+        <f t="shared" si="49"/>
+        <v>0.40597086988009978</v>
+      </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -5186,10 +5268,13 @@
         <v>2.8926736955934035E-2</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" ref="O40" si="52">O22/O16</f>
+        <f t="shared" ref="O40:P40" si="52">O22/O16</f>
         <v>7.909556313993174E-2</v>
       </c>
-      <c r="P40" s="10"/>
+      <c r="P40" s="10">
+        <f t="shared" si="52"/>
+        <v>8.095276414259274E-2</v>
+      </c>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
@@ -5280,10 +5365,13 @@
         <v>1.9014147967919257E-2</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" ref="O41" si="55">O27/O16</f>
+        <f t="shared" ref="O41:P41" si="55">O27/O16</f>
         <v>6.2030716723549491E-2</v>
       </c>
-      <c r="P41" s="10"/>
+      <c r="P41" s="10">
+        <f t="shared" si="55"/>
+        <v>6.3732196024784749E-2</v>
+      </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -5374,10 +5462,13 @@
         <v>0.33647798742138363</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" ref="O42" si="58">O26/O25</f>
+        <f t="shared" ref="O42:P42" si="58">O26/O25</f>
         <v>0.21149674620390455</v>
       </c>
-      <c r="P42" s="10"/>
+      <c r="P42" s="10">
+        <f t="shared" si="58"/>
+        <v>0.2072072072072072</v>
+      </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
@@ -10415,31 +10506,31 @@
         <v>127</v>
       </c>
       <c r="C4" s="10">
-        <f>Financials!T27/Financials!T83</f>
+        <f>Model!T27/Model!T83</f>
         <v>0.19700366897676314</v>
       </c>
       <c r="D4" s="10">
-        <f>Financials!U27/Financials!U83</f>
+        <f>Model!U27/Model!U83</f>
         <v>0.44568584070796458</v>
       </c>
       <c r="E4" s="10">
-        <f>Financials!V27/Financials!V83</f>
+        <f>Model!V27/Model!V83</f>
         <v>0.31520794537554314</v>
       </c>
       <c r="F4" s="10">
-        <f>Financials!W27/Financials!W83</f>
+        <f>Model!W27/Model!W83</f>
         <v>0.44857836610010182</v>
       </c>
       <c r="G4" s="10">
-        <f>Financials!X27/Financials!X83</f>
+        <f>Model!X27/Model!X83</f>
         <v>0.3956547346377855</v>
       </c>
       <c r="H4" s="10">
-        <f>Financials!Y27/Financials!Y83</f>
+        <f>Model!Y27/Model!Y83</f>
         <v>0.36203941730934019</v>
       </c>
       <c r="I4" s="10">
-        <f>Financials!Z27/Financials!Z83</f>
+        <f>Model!Z27/Model!Z83</f>
         <v>0.39501039501039503</v>
       </c>
       <c r="L4" s="23">
@@ -10456,31 +10547,31 @@
         <v>128</v>
       </c>
       <c r="C5" s="10">
-        <f>Financials!T22/(Financials!T58+SUM(Financials!T48:T51)-Financials!T65)</f>
+        <f>Model!T22/(Model!T58+SUM(Model!T48:T51)-Model!T65)</f>
         <v>0.2776736631684158</v>
       </c>
       <c r="D5" s="10">
-        <f>Financials!U22/(Financials!U58+SUM(Financials!U48:U51)-Financials!U65)</f>
+        <f>Model!U22/(Model!U58+SUM(Model!U48:U51)-Model!U65)</f>
         <v>0.28679608149528218</v>
       </c>
       <c r="E5" s="10">
-        <f>Financials!V22/(Financials!V58+SUM(Financials!V48:V51)-Financials!V65)</f>
+        <f>Model!V22/(Model!V58+SUM(Model!V48:V51)-Model!V65)</f>
         <v>0.15014942639544973</v>
       </c>
       <c r="F5" s="10">
-        <f>Financials!W22/(Financials!W58+SUM(Financials!W48:W51)-Financials!W65)</f>
+        <f>Model!W22/(Model!W58+SUM(Model!W48:W51)-Model!W65)</f>
         <v>0.27731361183290026</v>
       </c>
       <c r="G5" s="10">
-        <f>Financials!X22/(Financials!X58+SUM(Financials!X48:X51)-Financials!X65)</f>
+        <f>Model!X22/(Model!X58+SUM(Model!X48:X51)-Model!X65)</f>
         <v>0.23512628130613969</v>
       </c>
       <c r="H5" s="10">
-        <f>Financials!Y22/(Financials!Y58+SUM(Financials!Y48:Y51)-Financials!Y65)</f>
+        <f>Model!Y22/(Model!Y58+SUM(Model!Y48:Y51)-Model!Y65)</f>
         <v>0.21723960628764508</v>
       </c>
       <c r="I5" s="10">
-        <f>Financials!Z22/(Financials!Z58+SUM(Financials!Z48:Z51)-Financials!Z65)</f>
+        <f>Model!Z22/(Model!Z58+SUM(Model!Z48:Z51)-Model!Z65)</f>
         <v>0.248474349383834</v>
       </c>
       <c r="L5" s="23">
@@ -10497,31 +10588,31 @@
         <v>129</v>
       </c>
       <c r="C6" s="10">
-        <f>(Financials!T27*(1-Financials!T42))/(Financials!T83+Financials!T75-Financials!T47)</f>
+        <f>(Model!T27*(1-Model!T42))/(Model!T83+Model!T75-Model!T47)</f>
         <v>4.724274580223925E-2</v>
       </c>
       <c r="D6" s="10">
-        <f>(Financials!U27*(1-Financials!U42))/(Financials!U83+Financials!U75-Financials!U47)</f>
+        <f>(Model!U27*(1-Model!U42))/(Model!U83+Model!U75-Model!U47)</f>
         <v>0.1756343811417658</v>
       </c>
       <c r="E6" s="10">
-        <f>(Financials!V27*(1-Financials!V42))/(Financials!V83+Financials!V75-Financials!V47)</f>
+        <f>(Model!V27*(1-Model!V42))/(Model!V83+Model!V75-Model!V47)</f>
         <v>9.7110030571068998E-2</v>
       </c>
       <c r="F6" s="10">
-        <f>(Financials!W27*(1-Financials!W42))/(Financials!W83+Financials!W75-Financials!W47)</f>
+        <f>(Model!W27*(1-Model!W42))/(Model!W83+Model!W75-Model!W47)</f>
         <v>0.17679669383548202</v>
       </c>
       <c r="G6" s="10">
-        <f>(Financials!X27*(1-Financials!X42))/(Financials!X83+Financials!X75-Financials!X47)</f>
+        <f>(Model!X27*(1-Model!X42))/(Model!X83+Model!X75-Model!X47)</f>
         <v>0.17311976179584437</v>
       </c>
       <c r="H6" s="10">
-        <f>(Financials!Y27*(1-Financials!Y42))/(Financials!Y83+Financials!Y75-Financials!Y47)</f>
+        <f>(Model!Y27*(1-Model!Y42))/(Model!Y83+Model!Y75-Model!Y47)</f>
         <v>0.13776281219235376</v>
       </c>
       <c r="I6" s="10">
-        <f>(Financials!Z27*(1-Financials!Z42))/(Financials!Z83+Financials!Z75-Financials!Z47)</f>
+        <f>(Model!Z27*(1-Model!Z42))/(Model!Z83+Model!Z75-Model!Z47)</f>
         <v>0.18361061946902654</v>
       </c>
       <c r="L6" s="23">
@@ -10538,31 +10629,31 @@
         <v>130</v>
       </c>
       <c r="C7" s="10">
-        <f>Financials!T27/Financials!T60</f>
+        <f>Model!T27/Model!T60</f>
         <v>8.5773872914447991E-2</v>
       </c>
       <c r="D7" s="10">
-        <f>Financials!U27/Financials!U60</f>
+        <f>Model!U27/Model!U60</f>
         <v>0.16987814647721045</v>
       </c>
       <c r="E7" s="10">
-        <f>Financials!V27/Financials!V60</f>
+        <f>Model!V27/Model!V60</f>
         <v>8.1009508008423201E-2</v>
       </c>
       <c r="F7" s="10">
-        <f>Financials!W27/Financials!W60</f>
+        <f>Model!W27/Model!W60</f>
         <v>0.15174880763116058</v>
       </c>
       <c r="G7" s="10">
-        <f>Financials!X27/Financials!X60</f>
+        <f>Model!X27/Model!X60</f>
         <v>0.14994667790977406</v>
       </c>
       <c r="H7" s="10">
-        <f>Financials!Y27/Financials!Y60</f>
+        <f>Model!Y27/Model!Y60</f>
         <v>0.13508832698302736</v>
       </c>
       <c r="I7" s="10">
-        <f>Financials!Z27/Financials!Z60</f>
+        <f>Model!Z27/Model!Z60</f>
         <v>0.14956704277092628</v>
       </c>
       <c r="L7" s="23">
@@ -10579,31 +10670,31 @@
         <v>131</v>
       </c>
       <c r="C8" s="10">
-        <f>(Financials!T27-Financials!T23)/Financials!T60</f>
+        <f>(Model!T27-Model!T23)/Model!T60</f>
         <v>8.3377706780262698E-2</v>
       </c>
       <c r="D8" s="10">
-        <f>(Financials!U27-Financials!U23)/Financials!U60</f>
+        <f>(Model!U27-Model!U23)/Model!U60</f>
         <v>0.16781211789012102</v>
       </c>
       <c r="E8" s="10">
-        <f>(Financials!V27-Financials!V23)/Financials!V60</f>
+        <f>(Model!V27-Model!V23)/Model!V60</f>
         <v>7.816986790887627E-2</v>
       </c>
       <c r="F8" s="10">
-        <f>(Financials!W27-Financials!W23)/Financials!W60</f>
+        <f>(Model!W27-Model!W23)/Model!W60</f>
         <v>0.14480657127715951</v>
       </c>
       <c r="G8" s="10">
-        <f>(Financials!X27-Financials!X23)/Financials!X60</f>
+        <f>(Model!X27-Model!X23)/Model!X60</f>
         <v>0.14486247860916149</v>
       </c>
       <c r="H8" s="10">
-        <f>(Financials!Y27-Financials!Y23)/Financials!Y60</f>
+        <f>(Model!Y27-Model!Y23)/Model!Y60</f>
         <v>0.13524819482561082</v>
       </c>
       <c r="I8" s="10">
-        <f>(Financials!Z27-Financials!Z23)/Financials!Z60</f>
+        <f>(Model!Z27-Model!Z23)/Model!Z60</f>
         <v>0.15379165573340331</v>
       </c>
       <c r="L8" s="23">
@@ -10620,31 +10711,31 @@
         <v>132</v>
       </c>
       <c r="C9" s="10">
-        <f>1-(-Financials!T112/Financials!T27)</f>
+        <f>1-(-Model!T112/Model!T27)</f>
         <v>0.35695809622348684</v>
       </c>
       <c r="D9" s="10">
-        <f>1-(-Financials!U112/Financials!U27)</f>
+        <f>1-(-Model!U112/Model!U27)</f>
         <v>0.66939687267311987</v>
       </c>
       <c r="E9" s="10">
-        <f>1-(-Financials!V112/Financials!V27)</f>
+        <f>1-(-Model!V112/Model!V27)</f>
         <v>0.42812130760141787</v>
       </c>
       <c r="F9" s="10">
-        <f>1-(-Financials!W112/Financials!W27)</f>
+        <f>1-(-Model!W112/Model!W27)</f>
         <v>0.713986380303824</v>
       </c>
       <c r="G9" s="10">
-        <f>1-(-Financials!X112/Financials!X27)</f>
+        <f>1-(-Model!X112/Model!X27)</f>
         <v>0.69616275223288127</v>
       </c>
       <c r="H9" s="10">
-        <f>1-(-Financials!Y112/Financials!Y27)</f>
+        <f>1-(-Model!Y112/Model!Y27)</f>
         <v>0.60315581854043399</v>
       </c>
       <c r="I9" s="10">
-        <f>1-(-Financials!Z112/Financials!Z27)</f>
+        <f>1-(-Model!Z112/Model!Z27)</f>
         <v>0.6194736842105264</v>
       </c>
       <c r="L9" s="23">
@@ -10702,31 +10793,31 @@
         <v>134</v>
       </c>
       <c r="C11" s="10">
-        <f>(-Financials!T99-Financials!T104)/(Financials!T22*(1-Financials!T42))</f>
+        <f>(-Model!T99-Model!T104)/(Model!T22*(1-Model!T42))</f>
         <v>-0.22852743510527296</v>
       </c>
       <c r="D11" s="10">
-        <f>(-Financials!U99-Financials!U104)/(Financials!U22*(1-Financials!U42))</f>
+        <f>(-Model!U99-Model!U104)/(Model!U22*(1-Model!U42))</f>
         <v>0.13908785155069167</v>
       </c>
       <c r="E11" s="10">
-        <f>(-Financials!V99-Financials!V104)/(Financials!V22*(1-Financials!V42))</f>
+        <f>(-Model!V99-Model!V104)/(Model!V22*(1-Model!V42))</f>
         <v>0.8508799801744471</v>
       </c>
       <c r="F11" s="10">
-        <f>(-Financials!W99-Financials!W104)/(Financials!W22*(1-Financials!W42))</f>
+        <f>(-Model!W99-Model!W104)/(Model!W22*(1-Model!W42))</f>
         <v>0.1089817839464608</v>
       </c>
       <c r="G11" s="10">
-        <f>(-Financials!X99-Financials!X104)/(Financials!X22*(1-Financials!X42))</f>
+        <f>(-Model!X99-Model!X104)/(Model!X22*(1-Model!X42))</f>
         <v>0.39849587618520182</v>
       </c>
       <c r="H11" s="10">
-        <f>(-Financials!Y99-Financials!Y104)/(Financials!Y22*(1-Financials!Y42))</f>
+        <f>(-Model!Y99-Model!Y104)/(Model!Y22*(1-Model!Y42))</f>
         <v>0.30644125105663567</v>
       </c>
       <c r="I11" s="10">
-        <f>(-Financials!Z99-Financials!Z104)/(Financials!Z22*(1-Financials!Z42))</f>
+        <f>(-Model!Z99-Model!Z104)/(Model!Z22*(1-Model!Z42))</f>
         <v>1.6715972982808667E-2</v>
       </c>
       <c r="L11" s="23">
@@ -10792,31 +10883,31 @@
         <v>137</v>
       </c>
       <c r="C16" s="10">
-        <f>Financials!T83/Financials!T85</f>
+        <f>Model!T83/Model!T85</f>
         <v>0.43539226127085551</v>
       </c>
       <c r="D16" s="10">
-        <f>Financials!U83/Financials!U85</f>
+        <f>Model!U83/Model!U85</f>
         <v>0.38116119239364171</v>
       </c>
       <c r="E16" s="10">
-        <f>Financials!V83/Financials!V85</f>
+        <f>Model!V83/Model!V85</f>
         <v>0.25700338204326462</v>
       </c>
       <c r="F16" s="10">
-        <f>Financials!W83/Financials!W85</f>
+        <f>Model!W83/Model!W85</f>
         <v>0.33828828828828827</v>
       </c>
       <c r="G16" s="10">
-        <f>Financials!X83/Financials!X85</f>
+        <f>Model!X83/Model!X85</f>
         <v>0.37898365615932145</v>
       </c>
       <c r="H16" s="10">
-        <f>Financials!Y83/Financials!Y85</f>
+        <f>Model!Y83/Model!Y85</f>
         <v>0.37313154458980574</v>
       </c>
       <c r="I16" s="10">
-        <f>Financials!Z83/Financials!Z85</f>
+        <f>Model!Z83/Model!Z85</f>
         <v>0.37864077669902912</v>
       </c>
       <c r="L16" s="23">
@@ -10833,31 +10924,31 @@
         <v>138</v>
       </c>
       <c r="C17" s="10">
-        <f>C33/Financials!T83</f>
+        <f>C33/Model!T83</f>
         <v>-0.14624949041989402</v>
       </c>
       <c r="D17" s="10">
-        <f>D33/Financials!U83</f>
+        <f>D33/Model!U83</f>
         <v>-0.13097345132743363</v>
       </c>
       <c r="E17" s="10">
-        <f>E33/Financials!V83</f>
+        <f>E33/Model!V83</f>
         <v>0.46964618249534451</v>
       </c>
       <c r="F17" s="10">
-        <f>F33/Financials!W83</f>
+        <f>F33/Model!W83</f>
         <v>-8.8509438395864337E-2</v>
       </c>
       <c r="G17" s="10">
-        <f>G33/Financials!X83</f>
+        <f>G33/Model!X83</f>
         <v>-5.1698187291407634E-2</v>
       </c>
       <c r="H17" s="10">
-        <f>H33/Financials!Y83</f>
+        <f>H33/Model!Y83</f>
         <v>7.4550128534704371E-2</v>
       </c>
       <c r="I17" s="10">
-        <f>I33/Financials!Z83</f>
+        <f>I33/Model!Z83</f>
         <v>-7.4151074151074152E-3</v>
       </c>
       <c r="L17" s="23">
@@ -10874,31 +10965,31 @@
         <v>139</v>
       </c>
       <c r="C18" s="10">
-        <f>Ratios!C33/(Financials!T22+Financials!T89+Financials!T92)</f>
+        <f>Ratios!C33/(Model!T22+Model!T89+Model!T92)</f>
         <v>-0.27495688829277637</v>
       </c>
       <c r="D18" s="10">
-        <f>Ratios!D33/(Financials!U22+Financials!U89+Financials!U92)</f>
+        <f>Ratios!D33/(Model!U22+Model!U89+Model!U92)</f>
         <v>-0.21558630735615442</v>
       </c>
       <c r="E18" s="10">
-        <f>Ratios!E33/(Financials!V22+Financials!V89+Financials!V92)</f>
+        <f>Ratios!E33/(Model!V22+Model!V89+Model!V92)</f>
         <v>0.89348134152102032</v>
       </c>
       <c r="F18" s="10">
-        <f>Ratios!F33/(Financials!W22+Financials!W89+Financials!W92)</f>
+        <f>Ratios!F33/(Model!W22+Model!W89+Model!W92)</f>
         <v>-0.1461080941298164</v>
       </c>
       <c r="G18" s="10">
-        <f>Ratios!G33/(Financials!X22+Financials!X89+Financials!X92)</f>
+        <f>Ratios!G33/(Model!X22+Model!X89+Model!X92)</f>
         <v>-0.1051230871590153</v>
       </c>
       <c r="H18" s="10">
-        <f>Ratios!H33/(Financials!Y22+Financials!Y89+Financials!Y92)</f>
+        <f>Ratios!H33/(Model!Y22+Model!Y89+Model!Y92)</f>
         <v>0.15411868910540302</v>
       </c>
       <c r="I18" s="10">
-        <f>I33/(Financials!Z22+Financials!Y89+Financials!Y92)</f>
+        <f>I33/(Model!Z22+Model!Y89+Model!Y92)</f>
         <v>-1.492329149232915E-2</v>
       </c>
       <c r="L18" s="23">
@@ -10915,31 +11006,31 @@
         <v>140</v>
       </c>
       <c r="C19" s="10">
-        <f>-(Financials!T104/Financials!T89)</f>
+        <f>-(Model!T104/Model!T89)</f>
         <v>1.3761713520749665</v>
       </c>
       <c r="D19" s="10">
-        <f>-(Financials!U104/Financials!U89)</f>
+        <f>-(Model!U104/Model!U89)</f>
         <v>1.5872340425531914</v>
       </c>
       <c r="E19" s="10">
-        <f>-(Financials!V104/Financials!V89)</f>
+        <f>-(Model!V104/Model!V89)</f>
         <v>1.5062413314840499</v>
       </c>
       <c r="F19" s="10">
-        <f>-(Financials!W104/Financials!W89)</f>
+        <f>-(Model!W104/Model!W89)</f>
         <v>0.93413978494623651</v>
       </c>
       <c r="G19" s="10">
-        <f>-(Financials!X104/Financials!X89)</f>
+        <f>-(Model!X104/Model!X89)</f>
         <v>1.0571827057182706</v>
       </c>
       <c r="H19" s="10">
-        <f>-(Financials!Y104/Financials!Y89)</f>
+        <f>-(Model!Y104/Model!Y89)</f>
         <v>1.3783783783783783</v>
       </c>
       <c r="I19" s="10">
-        <f>-(Financials!Z104/Financials!Z89)</f>
+        <f>-(Model!Z104/Model!Z89)</f>
         <v>1.0201005025125629</v>
       </c>
       <c r="L19" s="23">
@@ -10956,31 +11047,31 @@
         <v>160</v>
       </c>
       <c r="C20" s="10">
-        <f>Ratios!C33/(Financials!T22*(1-Financials!T42))+Financials!T89+Financials!T92-Financials!T99+Financials!T104</f>
+        <f>Ratios!C33/(Model!T22*(1-Model!T42))+Model!T89+Model!T92-Model!T99+Model!T104</f>
         <v>-1736.7223279061145</v>
       </c>
       <c r="D20" s="10">
-        <f>Ratios!D33/(Financials!U22*(1-Financials!U42))+Financials!U89+Financials!U92-Financials!U99+Financials!U104</f>
+        <f>Ratios!D33/(Model!U22*(1-Model!U42))+Model!U89+Model!U92-Model!U99+Model!U104</f>
         <v>-961.2956553253789</v>
       </c>
       <c r="E20" s="10">
-        <f>Ratios!E33/(Financials!V22*(1-Financials!V42))+Financials!V89+Financials!V92-Financials!V99+Financials!V104</f>
+        <f>Ratios!E33/(Model!V22*(1-Model!V42))+Model!V89+Model!V92-Model!V99+Model!V104</f>
         <v>1279.3809004568857</v>
       </c>
       <c r="F20" s="10">
-        <f>Ratios!F33/(Financials!W22*(1-Financials!W42))+Financials!W89+Financials!W92-Financials!W99+Financials!W104</f>
+        <f>Ratios!F33/(Model!W22*(1-Model!W42))+Model!W89+Model!W92-Model!W99+Model!W104</f>
         <v>56.810539360216126</v>
       </c>
       <c r="G20" s="10">
-        <f>Ratios!G33/(Financials!X22*(1-Financials!X42))+Financials!X89+Financials!X92-Financials!X99+Financials!X104</f>
+        <f>Ratios!G33/(Model!X22*(1-Model!X42))+Model!X89+Model!X92-Model!X99+Model!X104</f>
         <v>1741.8698049039758</v>
       </c>
       <c r="H20" s="10">
-        <f>Ratios!H33/(Financials!Y22*(1-Financials!Y42))+Financials!Y89+Financials!Y92-Financials!Y99+Financials!Y104</f>
+        <f>Ratios!H33/(Model!Y22*(1-Model!Y42))+Model!Y89+Model!Y92-Model!Y99+Model!Y104</f>
         <v>403.21587359386172</v>
       </c>
       <c r="I20" s="10">
-        <f>Ratios!I33/(Financials!Z22*(1-Financials!Z42))+Financials!Z89+Financials!Z92-Financials!Z99+Financials!Z104</f>
+        <f>Ratios!I33/(Model!Z22*(1-Model!Z42))+Model!Z89+Model!Z92-Model!Z99+Model!Z104</f>
         <v>-684.01863134488713</v>
       </c>
       <c r="L20" s="23">
@@ -11005,31 +11096,31 @@
         <v>142</v>
       </c>
       <c r="C24" s="30">
-        <f>Financials!T49/Financials!T9*360</f>
+        <f>Model!T49/Model!T9*360</f>
         <v>56.551104724268008</v>
       </c>
       <c r="D24" s="30">
-        <f>Financials!U49/Financials!U9*360</f>
+        <f>Model!U49/Model!U9*360</f>
         <v>63.492692593510036</v>
       </c>
       <c r="E24" s="30">
-        <f>Financials!V49/Financials!V9*360</f>
+        <f>Model!V49/Model!V9*360</f>
         <v>42.464707144389621</v>
       </c>
       <c r="F24" s="30">
-        <f>Financials!W49/Financials!W9*360</f>
+        <f>Model!W49/Model!W9*360</f>
         <v>57.338424752863922</v>
       </c>
       <c r="G24" s="30">
-        <f>Financials!X49/Financials!X9*360</f>
+        <f>Model!X49/Model!X9*360</f>
         <v>57.650893868167316</v>
       </c>
       <c r="H24" s="30">
-        <f>Financials!Y49/Financials!Y9*360</f>
+        <f>Model!Y49/Model!Y9*360</f>
         <v>44.881846989588048</v>
       </c>
       <c r="I24" s="30">
-        <f>Financials!Z49/Financials!Z9*360</f>
+        <f>Model!Z49/Model!Z9*360</f>
         <v>47.677625871301643</v>
       </c>
       <c r="L24" s="30">
@@ -11046,31 +11137,31 @@
         <v>143</v>
       </c>
       <c r="C25" s="30">
-        <f>Financials!T65/Financials!T9*360</f>
+        <f>Model!T65/Model!T9*360</f>
         <v>36.843901562780673</v>
       </c>
       <c r="D25" s="30">
-        <f>Financials!U65/Financials!U9*360</f>
+        <f>Model!U65/Model!U9*360</f>
         <v>38.820906613822146</v>
       </c>
       <c r="E25" s="30">
-        <f>Financials!V65/Financials!V9*360</f>
+        <f>Model!V65/Model!V9*360</f>
         <v>34.725595365801333</v>
       </c>
       <c r="F25" s="30">
-        <f>Financials!W65/Financials!W9*360</f>
+        <f>Model!W65/Model!W9*360</f>
         <v>36.435530494985905</v>
       </c>
       <c r="G25" s="30">
-        <f>Financials!X65/Financials!X9*360</f>
+        <f>Model!X65/Model!X9*360</f>
         <v>41.480973132484642</v>
       </c>
       <c r="H25" s="30">
-        <f>Financials!Y65/Financials!Y9*360</f>
+        <f>Model!Y65/Model!Y9*360</f>
         <v>31.094612947034861</v>
       </c>
       <c r="I25" s="30">
-        <f>Financials!Z65/Financials!Z9*360</f>
+        <f>Model!Z65/Model!Z9*360</f>
         <v>30.704520297962723</v>
       </c>
       <c r="L25" s="30">
@@ -11087,31 +11178,31 @@
         <v>144</v>
       </c>
       <c r="C26" s="10">
-        <f>Financials!T50/Financials!T60</f>
+        <f>Model!T50/Model!T60</f>
         <v>0.23344870429534967</v>
       </c>
       <c r="D26" s="10">
-        <f>Financials!U50/Financials!U60</f>
+        <f>Model!U50/Model!U60</f>
         <v>0.23704515748197497</v>
       </c>
       <c r="E26" s="10">
-        <f>Financials!V50/Financials!V60</f>
+        <f>Model!V50/Model!V60</f>
         <v>0.2350520068917108</v>
       </c>
       <c r="F26" s="10">
-        <f>Financials!W50/Financials!W60</f>
+        <f>Model!W50/Model!W60</f>
         <v>0.18161102278749339</v>
       </c>
       <c r="G26" s="10">
-        <f>Financials!X50/Financials!X60</f>
+        <f>Model!X50/Model!X60</f>
         <v>0.2088241859080876</v>
       </c>
       <c r="H26" s="10">
-        <f>Financials!Y50/Financials!Y60</f>
+        <f>Model!Y50/Model!Y60</f>
         <v>0.22525379020010125</v>
       </c>
       <c r="I26" s="10">
-        <f>Financials!Z50/Financials!Z60</f>
+        <f>Model!Z50/Model!Z60</f>
         <v>0.19729729729729731</v>
       </c>
       <c r="L26" s="23">
@@ -11128,31 +11219,31 @@
         <v>145</v>
       </c>
       <c r="C27" s="30">
-        <f>Financials!T17/Financials!T50</f>
+        <f>Model!T17/Model!T50</f>
         <v>3.8853830070328836</v>
       </c>
       <c r="D27" s="30">
-        <f>Financials!U17/Financials!U50</f>
+        <f>Model!U17/Model!U50</f>
         <v>3.8496976165065813</v>
       </c>
       <c r="E27" s="30">
-        <f>Financials!V17/Financials!V50</f>
+        <f>Model!V17/Model!V50</f>
         <v>2.8725397040857881</v>
       </c>
       <c r="F27" s="30">
-        <f>Financials!W17/Financials!W50</f>
+        <f>Model!W17/Model!W50</f>
         <v>3.5856434199007881</v>
       </c>
       <c r="G27" s="30">
-        <f>Financials!X17/Financials!X50</f>
+        <f>Model!X17/Model!X50</f>
         <v>2.9965558194774347</v>
       </c>
       <c r="H27" s="30">
-        <f>Financials!Y17/Financials!Y50</f>
+        <f>Model!Y17/Model!Y50</f>
         <v>3.4214572983203215</v>
       </c>
       <c r="I27" s="30">
-        <f>Financials!Z17/Financials!Z50</f>
+        <f>Model!Z17/Model!Z50</f>
         <v>3.7870727490357758</v>
       </c>
       <c r="L27" s="30">
@@ -11256,32 +11347,32 @@
         <v>4</v>
       </c>
       <c r="C32" s="5">
-        <f>74.3*Financials!T30</f>
+        <f>74.3*Model!T30</f>
         <v>120690.67226890757</v>
       </c>
       <c r="D32" s="5">
-        <f>83.13*Financials!U30</f>
+        <f>83.13*Model!U30</f>
         <v>131345.4</v>
       </c>
       <c r="E32" s="5">
-        <f>95.17*Financials!V30</f>
+        <f>95.17*Model!V30</f>
         <v>148243.33128834359</v>
       </c>
       <c r="F32" s="5">
-        <f>131.94*Financials!W30</f>
+        <f>131.94*Model!W30</f>
         <v>207588.01648351646</v>
       </c>
       <c r="G32" s="5">
-        <f>110.44*Financials!X30</f>
+        <f>110.44*Model!X30</f>
         <v>174339.48825065274</v>
       </c>
       <c r="H32" s="5">
-        <f>106.83*Financials!Y30</f>
+        <f>106.83*Model!Y30</f>
         <v>165635.50458715594</v>
       </c>
       <c r="I32" s="5">
         <f>Main!I5</f>
-        <v>106226.60399999999</v>
+        <v>87068.574999999997</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -11289,31 +11380,31 @@
         <v>151</v>
       </c>
       <c r="C33" s="5">
-        <f>Financials!T63+Financials!T64+Financials!T70+Financials!T71-Financials!T47-Financials!T48</f>
+        <f>Model!T63+Model!T64+Model!T70+Model!T71-Model!T47-Model!T48</f>
         <v>-1435</v>
       </c>
       <c r="D33" s="5">
-        <f>Financials!U63+Financials!U64+Financials!U70+Financials!U71-Financials!U47-Financials!U48</f>
+        <f>Model!U63+Model!U64+Model!U70+Model!U71-Model!U47-Model!U48</f>
         <v>-1184</v>
       </c>
       <c r="E33" s="5">
-        <f>Financials!V63+Financials!V64+Financials!V70+Financials!V71-Financials!V47-Financials!V48</f>
+        <f>Model!V63+Model!V64+Model!V70+Model!V71-Model!V47-Model!V48</f>
         <v>3783</v>
       </c>
       <c r="F33" s="5">
-        <f>Financials!W63+Financials!W64+Financials!W70+Financials!W71-Financials!W47-Financials!W48</f>
+        <f>Model!W63+Model!W64+Model!W70+Model!W71-Model!W47-Model!W48</f>
         <v>-1130</v>
       </c>
       <c r="G33" s="5">
-        <f>Financials!X63+Financials!X64+Financials!X70+Financials!X71-Financials!X47-Financials!X48</f>
+        <f>Model!X63+Model!X64+Model!X70+Model!X71-Model!X47-Model!X48</f>
         <v>-790</v>
       </c>
       <c r="H33" s="5">
-        <f>Financials!Y63+Financials!Y64+Financials!Y70+Financials!Y71-Financials!Y47-Financials!Y48</f>
+        <f>Model!Y63+Model!Y64+Model!Y70+Model!Y71-Model!Y47-Model!Y48</f>
         <v>1044</v>
       </c>
       <c r="I33" s="5">
-        <f>Financials!Z63+Financials!Z64+Financials!Z70+Financials!Z71-Financials!Z47-Financials!Z48</f>
+        <f>Model!Z63+Model!Z64+Model!Z70+Model!Z71-Model!Z47-Model!Z48</f>
         <v>-107</v>
       </c>
     </row>
@@ -11347,7 +11438,7 @@
       </c>
       <c r="I34" s="5">
         <f>I32+I33</f>
-        <v>106119.60399999999</v>
+        <v>86961.574999999997</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
@@ -11367,40 +11458,40 @@
         <v>149</v>
       </c>
       <c r="C36" s="30">
-        <f>C32/Financials!T27</f>
+        <f>C32/Model!T27</f>
         <v>62.436974789915972</v>
       </c>
       <c r="D36" s="30">
-        <f>D32/Financials!U27</f>
+        <f>D32/Model!U27</f>
         <v>32.6</v>
       </c>
       <c r="E36" s="30">
-        <f>E32/Financials!V27</f>
+        <f>E32/Model!V27</f>
         <v>58.386503067484675</v>
       </c>
       <c r="F36" s="30">
-        <f>F32/Financials!W27</f>
+        <f>F32/Model!W27</f>
         <v>36.247252747252745</v>
       </c>
       <c r="G36" s="30">
-        <f>G32/Financials!X27</f>
+        <f>G32/Model!X27</f>
         <v>28.835509138381202</v>
       </c>
       <c r="H36" s="30">
-        <f>H32/Financials!Y27</f>
+        <f>H32/Model!Y27</f>
         <v>32.669724770642198</v>
       </c>
       <c r="I36" s="30">
-        <f>I32/Financials!Z27</f>
-        <v>18.636246315789471</v>
+        <f>I32/Model!Z27</f>
+        <v>15.275188596491228</v>
       </c>
       <c r="L36" s="30">
         <f>AVERAGE(C36:I36)</f>
-        <v>38.544601547066613</v>
+        <v>38.06445044430972</v>
       </c>
       <c r="M36" s="30">
         <f>AVERAGE(D36:J36)</f>
-        <v>34.562539339925046</v>
+        <v>34.00236305337534</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
@@ -11411,36 +11502,36 @@
         <v>43</v>
       </c>
       <c r="D37" s="30">
-        <f>D36/((Financials!U27/Financials!T27-1)*100)</f>
+        <f>D36/((Model!U27/Model!T27-1)*100)</f>
         <v>0.30064790076335879</v>
       </c>
       <c r="E37" s="30">
-        <f>E36/((Financials!V27/Financials!U27-1)*100)</f>
+        <f>E36/((Model!V27/Model!U27-1)*100)</f>
         <v>-1.578786717173797</v>
       </c>
       <c r="F37" s="30">
-        <f>F36/((Financials!W27/Financials!V27-1)*100)</f>
+        <f>F36/((Model!W27/Model!V27-1)*100)</f>
         <v>0.28868185296510263</v>
       </c>
       <c r="G37" s="30">
-        <f>G36/((Financials!X27/Financials!W27-1)*100)</f>
+        <f>G36/((Model!X27/Model!W27-1)*100)</f>
         <v>5.176832628072388</v>
       </c>
       <c r="H37" s="30">
-        <f>H36/((Financials!Y27/Financials!X27-1)*100)</f>
+        <f>H36/((Model!Y27/Model!X27-1)*100)</f>
         <v>-2.0237823356895777</v>
       </c>
       <c r="I37" s="30">
-        <f>I36/((Financials!Z27/Financials!Y27-1)*100)</f>
-        <v>1.4997741082706768</v>
+        <f>I36/((Model!Z27/Model!Y27-1)*100)</f>
+        <v>1.2292889870509611</v>
       </c>
       <c r="L37" s="30">
         <f t="shared" ref="L37:M41" si="11">AVERAGE(C37:I37)</f>
-        <v>0.61056123953469188</v>
+        <v>0.5654803859980726</v>
       </c>
       <c r="M37" s="30">
         <f t="shared" si="11"/>
-        <v>0.61056123953469188</v>
+        <v>0.5654803859980726</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
@@ -11448,40 +11539,40 @@
         <v>152</v>
       </c>
       <c r="C38" s="30">
-        <f>Ratios!C32/Financials!T83</f>
+        <f>Ratios!C32/Model!T83</f>
         <v>12.300313113423112</v>
       </c>
       <c r="D38" s="30">
-        <f>Ratios!D32/Financials!U83</f>
+        <f>Ratios!D32/Model!U83</f>
         <v>14.529358407079645</v>
       </c>
       <c r="E38" s="30">
-        <f>Ratios!E32/Financials!V83</f>
+        <f>Ratios!E32/Model!V83</f>
         <v>18.403889669564691</v>
       </c>
       <c r="F38" s="30">
-        <f>Ratios!F32/Financials!W83</f>
+        <f>Ratios!F32/Model!W83</f>
         <v>16.259733412980061</v>
       </c>
       <c r="G38" s="30">
-        <f>Ratios!G32/Financials!X83</f>
+        <f>Ratios!G32/Model!X83</f>
         <v>11.408905716291653</v>
       </c>
       <c r="H38" s="30">
-        <f>Ratios!H32/Financials!Y83</f>
+        <f>Ratios!H32/Model!Y83</f>
         <v>11.827728119619819</v>
       </c>
       <c r="I38" s="30">
-        <f>Ratios!I32/Financials!Z83</f>
-        <v>7.3615110187110178</v>
+        <f>Ratios!I32/Model!Z83</f>
+        <v>6.0338582813582811</v>
       </c>
       <c r="L38" s="30">
         <f t="shared" si="11"/>
-        <v>13.155919922524285</v>
+        <v>12.966255245759609</v>
       </c>
       <c r="M38" s="30">
         <f t="shared" si="11"/>
-        <v>13.298521057374479</v>
+        <v>13.077245601149023</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
@@ -11489,40 +11580,40 @@
         <v>153</v>
       </c>
       <c r="C39" s="30">
-        <f>C32/(Financials!T83-Financials!T55-Financials!T56)</f>
+        <f>C32/(Model!T83-Model!T55-Model!T56)</f>
         <v>12.876418678001448</v>
       </c>
       <c r="D39" s="30">
-        <f>D32/(Financials!U83-Financials!U55-Financials!U56)</f>
+        <f>D32/(Model!U83-Model!U55-Model!U56)</f>
         <v>15.267395094734395</v>
       </c>
       <c r="E39" s="30">
-        <f>E32/(Financials!V83-Financials!V55-Financials!V56)</f>
+        <f>E32/(Model!V83-Model!V55-Model!V56)</f>
         <v>19.614095169137812</v>
       </c>
       <c r="F39" s="30">
-        <f>F32/(Financials!W83-Financials!W55-Financials!W56)</f>
+        <f>F32/(Model!W83-Model!W55-Model!W56)</f>
         <v>16.937664530313029</v>
       </c>
       <c r="G39" s="30">
-        <f>G32/(Financials!X83-Financials!X55-Financials!X56)</f>
+        <f>G32/(Model!X83-Model!X55-Model!X56)</f>
         <v>11.850961066593211</v>
       </c>
       <c r="H39" s="30">
-        <f>H32/(Financials!Y83-Financials!Y55-Financials!Y56)</f>
+        <f>H32/(Model!Y83-Model!Y55-Model!Y56)</f>
         <v>12.315823078827863</v>
       </c>
       <c r="I39" s="30">
-        <f>I32/(Financials!Z83-Financials!Z55-Financials!Z56)</f>
-        <v>7.6251958940492424</v>
+        <f>I32/(Model!Z83-Model!Z55-Model!Z56)</f>
+        <v>6.2499874380877181</v>
       </c>
       <c r="L39" s="30">
         <f t="shared" si="11"/>
-        <v>13.783936215951</v>
+        <v>13.587477865099354</v>
       </c>
       <c r="M39" s="30">
         <f t="shared" si="11"/>
-        <v>13.935189138942592</v>
+        <v>13.705987729615671</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
@@ -11530,40 +11621,40 @@
         <v>161</v>
       </c>
       <c r="C40" s="30">
-        <f>C32/Financials!T100</f>
+        <f>C32/Model!T100</f>
         <v>24.357350609264898</v>
       </c>
       <c r="D40" s="30">
-        <f>D32/Financials!U100</f>
+        <f>D32/Model!U100</f>
         <v>22.250618329662881</v>
       </c>
       <c r="E40" s="30">
-        <f>E32/Financials!V100</f>
+        <f>E32/Model!V100</f>
         <v>59.655264099937057</v>
       </c>
       <c r="F40" s="30">
-        <f>F32/Financials!W100</f>
+        <f>F32/Model!W100</f>
         <v>31.183418429249883</v>
       </c>
       <c r="G40" s="30">
-        <f>G32/Financials!X100</f>
+        <f>G32/Model!X100</f>
         <v>33.60437321716514</v>
       </c>
       <c r="H40" s="30">
-        <f>H32/Financials!Y100</f>
+        <f>H32/Model!Y100</f>
         <v>28.357388218996054</v>
       </c>
       <c r="I40" s="30">
-        <f>I32/Financials!Z100</f>
-        <v>14.298910216718266</v>
+        <f>I32/Model!Z100</f>
+        <v>11.72009355229506</v>
       </c>
       <c r="L40" s="30">
         <f t="shared" si="11"/>
-        <v>30.529617588713457</v>
+        <v>30.161215208081568</v>
       </c>
       <c r="M40" s="30">
         <f t="shared" si="11"/>
-        <v>31.558328751954878</v>
+        <v>31.12852597455101</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
@@ -11571,40 +11662,40 @@
         <v>154</v>
       </c>
       <c r="C41" s="30">
-        <f>C32/Financials!T16</f>
+        <f>C32/Model!T16</f>
         <v>3.3159511022586359</v>
       </c>
       <c r="D41" s="30">
-        <f>D32/Financials!U16</f>
+        <f>D32/Model!U16</f>
         <v>3.3577574967405472</v>
       </c>
       <c r="E41" s="30">
-        <f>E32/Financials!V16</f>
+        <f>E32/Model!V16</f>
         <v>3.9634075151282944</v>
       </c>
       <c r="F41" s="30">
-        <f>F32/Financials!W16</f>
+        <f>F32/Model!W16</f>
         <v>4.6609191360976352</v>
       </c>
       <c r="G41" s="30">
-        <f>G32/Financials!X16</f>
+        <f>G32/Model!X16</f>
         <v>3.7323803950043404</v>
       </c>
       <c r="H41" s="30">
-        <f>H32/Financials!Y16</f>
+        <f>H32/Model!Y16</f>
         <v>3.2339946616778792</v>
       </c>
       <c r="I41" s="30">
-        <f>I32/Financials!Z16</f>
-        <v>2.068194462832444</v>
+        <f>I32/Model!Z16</f>
+        <v>1.6951944044235037</v>
       </c>
       <c r="L41" s="30">
         <f t="shared" si="11"/>
-        <v>3.4760863956771111</v>
+        <v>3.4228006730472624</v>
       </c>
       <c r="M41" s="30">
         <f t="shared" si="11"/>
-        <v>3.5027756112468569</v>
+        <v>3.4406089348453666</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
@@ -11617,40 +11708,40 @@
         <v>156</v>
       </c>
       <c r="C43" s="30">
-        <f>C34/Financials!T16</f>
+        <f>C34/Model!T16</f>
         <v>3.276524775913058</v>
       </c>
       <c r="D43" s="30">
-        <f>D34/Financials!U16</f>
+        <f>D34/Model!U16</f>
         <v>3.3274893268911212</v>
       </c>
       <c r="E43" s="30">
-        <f>E34/Financials!V16</f>
+        <f>E34/Model!V16</f>
         <v>4.0645491347844711</v>
       </c>
       <c r="F43" s="30">
-        <f>F34/Financials!W16</f>
+        <f>F34/Model!W16</f>
         <v>4.6355475433004729</v>
       </c>
       <c r="G43" s="30">
-        <f>G34/Financials!X16</f>
+        <f>G34/Model!X16</f>
         <v>3.7154675283804912</v>
       </c>
       <c r="H43" s="30">
-        <f>H34/Financials!Y16</f>
+        <f>H34/Model!Y16</f>
         <v>3.2543785186003853</v>
       </c>
       <c r="I43" s="30">
-        <f>I34/Financials!Z16</f>
-        <v>2.0661112106226391</v>
+        <f>I34/Model!Z16</f>
+        <v>1.6931111522136988</v>
       </c>
       <c r="L43" s="30">
         <f t="shared" ref="L43:M46" si="12">AVERAGE(C43:I43)</f>
-        <v>3.4771525769275198</v>
+        <v>3.4238668542976711</v>
       </c>
       <c r="M43" s="30">
         <f t="shared" si="12"/>
-        <v>3.5105905437632638</v>
+        <v>3.4484238673617735</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
@@ -11658,40 +11749,40 @@
         <v>157</v>
       </c>
       <c r="C44" s="30">
-        <f>C34/Financials!T22</f>
+        <f>C34/Model!T22</f>
         <v>26.829172613927462</v>
       </c>
       <c r="D44" s="30">
-        <f>D34/Financials!U22</f>
+        <f>D34/Model!U22</f>
         <v>27.276068734283317</v>
       </c>
       <c r="E44" s="30">
-        <f>E34/Financials!V22</f>
+        <f>E34/Model!V22</f>
         <v>48.804600734620735</v>
       </c>
       <c r="F44" s="30">
-        <f>F34/Financials!W22</f>
+        <f>F34/Model!W22</f>
         <v>29.761859086567171</v>
       </c>
       <c r="G44" s="30">
-        <f>G34/Financials!X22</f>
+        <f>G34/Model!X22</f>
         <v>25.99992333343112</v>
       </c>
       <c r="H44" s="30">
-        <f>H34/Financials!Y22</f>
+        <f>H34/Model!Y22</f>
         <v>28.179121654633295</v>
       </c>
       <c r="I44" s="30">
-        <f>I34/Financials!Z22</f>
-        <v>16.815022025035649</v>
+        <f>I34/Model!Z22</f>
+        <v>13.779365393756931</v>
       </c>
       <c r="L44" s="30">
         <f t="shared" si="12"/>
-        <v>29.095109740356968</v>
+        <v>28.66144450731715</v>
       </c>
       <c r="M44" s="30">
         <f t="shared" si="12"/>
-        <v>29.472765928095214</v>
+        <v>28.966823156215426</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
@@ -11699,40 +11790,40 @@
         <v>158</v>
       </c>
       <c r="C45" s="30">
-        <f>Ratios!C34/(Financials!T22+Financials!T89+Financials!T92)</f>
+        <f>Ratios!C34/(Model!T22+Model!T89+Model!T92)</f>
         <v>22.850291678273148</v>
       </c>
       <c r="D45" s="30">
-        <f>Ratios!D34/(Financials!U22+Financials!U89+Financials!U92)</f>
+        <f>Ratios!D34/(Model!U22+Model!U89+Model!U92)</f>
         <v>23.700182083029862</v>
       </c>
       <c r="E45" s="30">
-        <f>Ratios!E34/(Financials!V22+Financials!V89+Financials!V92)</f>
+        <f>Ratios!E34/(Model!V22+Model!V89+Model!V92)</f>
         <v>35.906077300033914</v>
       </c>
       <c r="F45" s="30">
-        <f>Ratios!F34/(Financials!W22+Financials!W89+Financials!W92)</f>
+        <f>Ratios!F34/(Model!W22+Model!W89+Model!W92)</f>
         <v>26.694856023211333</v>
       </c>
       <c r="G45" s="30">
-        <f>Ratios!G34/(Financials!X22+Financials!X89+Financials!X92)</f>
+        <f>Ratios!G34/(Model!X22+Model!X89+Model!X92)</f>
         <v>23.093744278197303</v>
       </c>
       <c r="H45" s="30">
-        <f>Ratios!H34/(Financials!Y22+Financials!Y89+Financials!Y92)</f>
+        <f>Ratios!H34/(Model!Y22+Model!Y89+Model!Y92)</f>
         <v>24.605772746849119</v>
       </c>
       <c r="I45" s="30">
-        <f>Ratios!I34/(Financials!Z22+Financials!Y89+Financials!Y92)</f>
-        <v>14.800502649930264</v>
+        <f>Ratios!I34/(Model!Z22+Model!Y89+Model!Y92)</f>
+        <v>12.128532078103207</v>
       </c>
       <c r="L45" s="30">
         <f t="shared" si="12"/>
-        <v>24.521632394217846</v>
+        <v>24.139922312528267</v>
       </c>
       <c r="M45" s="30">
         <f t="shared" si="12"/>
-        <v>24.80018918020863</v>
+        <v>24.354860751570786</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
@@ -11740,40 +11831,40 @@
         <v>159</v>
       </c>
       <c r="C46" s="30">
-        <f>C34/(Financials!T22*(1-Financials!T42)+Financials!T89+Financials!T92+Financials!S104+Financials!S98)</f>
+        <f>C34/(Model!T22*(1-Model!T42)+Model!T89+Model!T92+Model!S104+Model!S98)</f>
         <v>43.198679247322083</v>
       </c>
       <c r="D46" s="30">
-        <f>D34/(Financials!U22*(1-Financials!U42)+Financials!U89+Financials!U92+Financials!T104+Financials!T98)</f>
+        <f>D34/(Model!U22*(1-Model!U42)+Model!U89+Model!U92+Model!T104+Model!T98)</f>
         <v>24.975021432829244</v>
       </c>
       <c r="E46" s="30">
-        <f>E34/(Financials!V22*(1-Financials!V42)+Financials!V89+Financials!V92+Financials!U104+Financials!U98)</f>
+        <f>E34/(Model!V22*(1-Model!V42)+Model!V89+Model!V92+Model!U104+Model!U98)</f>
         <v>35.649134107784647</v>
       </c>
       <c r="F46" s="30">
-        <f>F34/(Financials!W22*(1-Financials!W42)+Financials!W89+Financials!W92+Financials!V104+Financials!V98)</f>
+        <f>F34/(Model!W22*(1-Model!W42)+Model!W89+Model!W92+Model!V104+Model!V98)</f>
         <v>36.225156498205678</v>
       </c>
       <c r="G46" s="30">
-        <f>G34/(Financials!X22*(1-Financials!X42)+Financials!X89+Financials!X92+Financials!W104+Financials!W98)</f>
+        <f>G34/(Model!X22*(1-Model!X42)+Model!X89+Model!X92+Model!W104+Model!W98)</f>
         <v>23.020785787950288</v>
       </c>
       <c r="H46" s="30">
-        <f>H34/(Financials!Y22*(1-Financials!Y42)+Financials!Y89+Financials!Y92+Financials!X104+Financials!X98)</f>
+        <f>H34/(Model!Y22*(1-Model!Y42)+Model!Y89+Model!Y92+Model!X104+Model!X98)</f>
         <v>26.447981555059251</v>
       </c>
       <c r="I46" s="30">
-        <f>I34/(Financials!Z22*(1-Financials!Z42)+Financials!Z89+Financials!Z92+Financials!Y104+Financials!Y98)</f>
-        <v>19.677249624977517</v>
+        <f>I34/(Model!Z22*(1-Model!Z42)+Model!Z89+Model!Z92+Model!Y104+Model!Y98)</f>
+        <v>16.12486811632094</v>
       </c>
       <c r="L46" s="30">
         <f t="shared" si="12"/>
-        <v>29.884858322018385</v>
+        <v>29.377375249353161</v>
       </c>
       <c r="M46" s="30">
         <f t="shared" si="12"/>
-        <v>27.665888167801103</v>
+        <v>27.073824583025004</v>
       </c>
     </row>
   </sheetData>
@@ -11866,7 +11957,7 @@
       </c>
       <c r="J3" s="34">
         <f>Main!I3</f>
-        <v>71.94</v>
+        <v>58.85</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
@@ -11881,7 +11972,7 @@
       </c>
       <c r="J4" s="36">
         <f ca="1">V60</f>
-        <v>69.715126662094661</v>
+        <v>69.410176430719147</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
@@ -11896,7 +11987,7 @@
       </c>
       <c r="J5" s="38">
         <f ca="1">J4/J3-1</f>
-        <v>-3.0926790907775059E-2</v>
+        <v>0.17944225030958627</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
@@ -12176,27 +12267,27 @@
         <v>175</v>
       </c>
       <c r="G23" s="11">
-        <f>Financials!U16</f>
+        <f>Model!U16</f>
         <v>39117</v>
       </c>
       <c r="H23" s="11">
-        <f>Financials!V16</f>
+        <f>Model!V16</f>
         <v>37403</v>
       </c>
       <c r="I23" s="11">
-        <f>Financials!W16</f>
+        <f>Model!W16</f>
         <v>44538</v>
       </c>
       <c r="J23" s="11">
-        <f>Financials!X16</f>
+        <f>Model!X16</f>
         <v>46710</v>
       </c>
       <c r="K23" s="11">
-        <f>Financials!Y16</f>
+        <f>Model!Y16</f>
         <v>51217</v>
       </c>
       <c r="L23" s="11">
-        <f>Financials!Z16</f>
+        <f>Model!Z16</f>
         <v>51362</v>
       </c>
       <c r="M23" s="11">
@@ -12396,27 +12487,27 @@
         <v>186</v>
       </c>
       <c r="G29" s="11">
-        <f>Financials!U22</f>
+        <f>Model!U22</f>
         <v>4772</v>
       </c>
       <c r="H29" s="11">
-        <f>Financials!V22</f>
+        <f>Model!V22</f>
         <v>3115</v>
       </c>
       <c r="I29" s="11">
-        <f>Financials!W22</f>
+        <f>Model!W22</f>
         <v>6937</v>
       </c>
       <c r="J29" s="11">
-        <f>Financials!X22</f>
+        <f>Model!X22</f>
         <v>6675</v>
       </c>
       <c r="K29" s="11">
-        <f>Financials!Y22</f>
+        <f>Model!Y22</f>
         <v>5915</v>
       </c>
       <c r="L29" s="11">
-        <f>Financials!Z22</f>
+        <f>Model!Z22</f>
         <v>6311</v>
       </c>
       <c r="M29" s="11">
@@ -12607,27 +12698,27 @@
         <v>188</v>
       </c>
       <c r="G35" s="11">
-        <f>Financials!T26</f>
+        <f>Model!T26</f>
         <v>2392</v>
       </c>
       <c r="H35" s="11">
-        <f>Financials!U26</f>
+        <f>Model!U26</f>
         <v>772</v>
       </c>
       <c r="I35" s="11">
-        <f>Financials!V26</f>
+        <f>Model!V26</f>
         <v>348</v>
       </c>
       <c r="J35" s="11">
-        <f>Financials!W26</f>
+        <f>Model!W26</f>
         <v>934</v>
       </c>
       <c r="K35" s="11">
-        <f>Financials!X26</f>
+        <f>Model!X26</f>
         <v>605</v>
       </c>
       <c r="L35" s="11">
-        <f>Financials!Y26</f>
+        <f>Model!Y26</f>
         <v>1131</v>
       </c>
       <c r="M35" s="11">
@@ -12819,27 +12910,27 @@
         <v>183</v>
       </c>
       <c r="G40" s="55">
-        <f>Financials!T89</f>
+        <f>Model!T89</f>
         <v>747</v>
       </c>
       <c r="H40" s="55">
-        <f>Financials!U89</f>
+        <f>Model!U89</f>
         <v>705</v>
       </c>
       <c r="I40" s="55">
-        <f>Financials!V89</f>
+        <f>Model!V89</f>
         <v>721</v>
       </c>
       <c r="J40" s="55">
-        <f>Financials!W89</f>
+        <f>Model!W89</f>
         <v>744</v>
       </c>
       <c r="K40" s="55">
-        <f>Financials!X89</f>
+        <f>Model!X89</f>
         <v>717</v>
       </c>
       <c r="L40" s="55">
-        <f>Financials!Y89</f>
+        <f>Model!Y89</f>
         <v>703</v>
       </c>
       <c r="M40" s="55">
@@ -12951,27 +13042,27 @@
         <v>198</v>
       </c>
       <c r="G43" s="55">
-        <f>Financials!T104</f>
+        <f>Model!T104</f>
         <v>-1028</v>
       </c>
       <c r="H43" s="55">
-        <f>Financials!U104</f>
+        <f>Model!U104</f>
         <v>-1119</v>
       </c>
       <c r="I43" s="55">
-        <f>Financials!V104</f>
+        <f>Model!V104</f>
         <v>-1086</v>
       </c>
       <c r="J43" s="55">
-        <f>Financials!W104</f>
+        <f>Model!W104</f>
         <v>-695</v>
       </c>
       <c r="K43" s="55">
-        <f>Financials!X104</f>
+        <f>Model!X104</f>
         <v>-758</v>
       </c>
       <c r="L43" s="55">
-        <f>Financials!Y104</f>
+        <f>Model!Y104</f>
         <v>-969</v>
       </c>
       <c r="M43" s="55">
@@ -13079,27 +13170,27 @@
         <v>199</v>
       </c>
       <c r="G46" s="55">
-        <f>Financials!U99</f>
+        <f>Model!U99</f>
         <v>562</v>
       </c>
       <c r="H46" s="55">
-        <f>Financials!V99</f>
+        <f>Model!V99</f>
         <v>-1245</v>
       </c>
       <c r="I46" s="55">
-        <f>Financials!W99</f>
+        <f>Model!W99</f>
         <v>45</v>
       </c>
       <c r="J46" s="55">
-        <f>Financials!X99</f>
+        <f>Model!X99</f>
         <v>-1660</v>
       </c>
       <c r="K46" s="55">
-        <f>Financials!Y99</f>
+        <f>Model!Y99</f>
         <v>-513</v>
       </c>
       <c r="L46" s="55">
-        <f>Financials!Z99</f>
+        <f>Model!Z99</f>
         <v>716</v>
       </c>
       <c r="M46" s="55">
@@ -13467,7 +13558,7 @@
       <c r="Q56" s="11"/>
       <c r="V56" s="11">
         <f>Main!I6</f>
-        <v>8575</v>
+        <v>8345</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
@@ -13495,7 +13586,7 @@
       <c r="U57" s="64"/>
       <c r="V57" s="64">
         <f>Main!I7</f>
-        <v>7996</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -13508,7 +13599,7 @@
       <c r="Q58" s="11"/>
       <c r="V58" s="11">
         <f ca="1">V55+V56-V57</f>
-        <v>102941.35602924897</v>
+        <v>102692.35602924897</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -13536,7 +13627,7 @@
       <c r="U59" s="64"/>
       <c r="V59" s="64">
         <f>Main!I4</f>
-        <v>1476.6</v>
+        <v>1479.5</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
@@ -13545,7 +13636,7 @@
       </c>
       <c r="V60" s="30">
         <f ca="1">V58/V59</f>
-        <v>69.715126662094661</v>
+        <v>69.410176430719147</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
@@ -13578,19 +13669,19 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="66"/>
-      <c r="C66" s="78" t="s">
+      <c r="C66" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="79"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="81"/>
     </row>
     <row r="67" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="80" t="s">
+      <c r="B67" s="82" t="s">
         <v>187</v>
       </c>
       <c r="C67" s="67"/>
@@ -13603,7 +13694,7 @@
       <c r="J67" s="68"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="80"/>
+      <c r="B68" s="82"/>
       <c r="C68" s="69"/>
       <c r="D68" s="70"/>
       <c r="E68" s="70"/>
@@ -13614,7 +13705,7 @@
       <c r="J68" s="70"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="80"/>
+      <c r="B69" s="82"/>
       <c r="C69" s="69"/>
       <c r="D69" s="70"/>
       <c r="E69" s="70"/>
@@ -13625,7 +13716,7 @@
       <c r="J69" s="70"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="80"/>
+      <c r="B70" s="82"/>
       <c r="C70" s="69"/>
       <c r="D70" s="70"/>
       <c r="E70" s="70"/>
@@ -13636,7 +13727,7 @@
       <c r="J70" s="70"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="80"/>
+      <c r="B71" s="82"/>
       <c r="C71" s="69"/>
       <c r="D71" s="70"/>
       <c r="E71" s="70"/>
@@ -13647,7 +13738,7 @@
       <c r="J71" s="70"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="80"/>
+      <c r="B72" s="82"/>
       <c r="C72" s="69"/>
       <c r="D72" s="70"/>
       <c r="E72" s="70"/>
@@ -13658,7 +13749,7 @@
       <c r="J72" s="70"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="80"/>
+      <c r="B73" s="82"/>
       <c r="C73" s="69"/>
       <c r="D73" s="70"/>
       <c r="E73" s="70"/>
@@ -13669,7 +13760,7 @@
       <c r="J73" s="70"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="81"/>
+      <c r="B74" s="83"/>
       <c r="C74" s="69"/>
       <c r="D74" s="70"/>
       <c r="E74" s="70"/>
@@ -13959,7 +14050,7 @@
       </c>
       <c r="F35" s="76">
         <f>+Main!I7</f>
-        <v>7996</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -13968,7 +14059,7 @@
       </c>
       <c r="F36" s="76">
         <f>+Main!I5</f>
-        <v>106226.60399999999</v>
+        <v>87068.574999999997</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -13977,7 +14068,7 @@
       </c>
       <c r="F37" s="76">
         <f>F35+F36</f>
-        <v>114222.60399999999</v>
+        <v>95083.574999999997</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -14000,23 +14091,23 @@
       <c r="E41" s="20"/>
       <c r="F41" s="74">
         <f>(F32*(F35/F37)*(1-F39))+((F36/F37)*F22)</f>
-        <v>8.3221764162316789E-2</v>
+        <v>8.2383005725147743E-2</v>
       </c>
       <c r="H41" s="72" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="82" t="s">
+      <c r="B48" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="H48" s="82" t="s">
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="H48" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
